--- a/data/trans_dic/P69$nervioso-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P69$nervioso-Habitat-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.4569372817734159</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.6146460051968308</v>
+        <v>0.6146460051968309</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.25702735425986</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1142471782342991</v>
+        <v>0.118383711342887</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2679435018363351</v>
+        <v>0.262741468591794</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2622375107505589</v>
+        <v>0.2756877501335515</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3290351603642058</v>
+        <v>0.3359326021958692</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2670535636639959</v>
+        <v>0.2410347647175883</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3744501917821594</v>
+        <v>0.3618388982158821</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2731765429748944</v>
+        <v>0.2820953250742161</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.5012442545343945</v>
+        <v>0.5086867701761796</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1835025124579379</v>
+        <v>0.1770496875277198</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3237542149045007</v>
+        <v>0.3276717033131369</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3152383278740737</v>
+        <v>0.3222319777645387</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.4337973864419641</v>
+        <v>0.4336175108350344</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2935100187193928</v>
+        <v>0.2987698381387322</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4913161682332813</v>
+        <v>0.4811831012381859</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5458789514509642</v>
+        <v>0.5548392318719568</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5976593699340979</v>
+        <v>0.592455134256817</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.6078985072611948</v>
+        <v>0.5772259413276813</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7301926284024997</v>
+        <v>0.7055761445320786</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.6355617959006381</v>
+        <v>0.6574561734620146</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.7090313916689355</v>
+        <v>0.7178887294232503</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3567464291091808</v>
+        <v>0.3528317183050788</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.5091498022273016</v>
+        <v>0.5109815770888957</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.5340732457261493</v>
+        <v>0.5343417178747529</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.6090755420178455</v>
+        <v>0.6099711323739956</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.429728663531065</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.5829250106102651</v>
+        <v>0.5829250106102654</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.4547366753451401</v>
@@ -833,7 +833,7 @@
         <v>0.4671515188021299</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.6073246871325533</v>
+        <v>0.6073246871325532</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3563264819830048</v>
+        <v>0.353725617196062</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3955433411179455</v>
+        <v>0.3939133362601824</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3275611028635427</v>
+        <v>0.330316998256441</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4799818962361911</v>
+        <v>0.4822918812977037</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3022167535931455</v>
+        <v>0.3183973327172495</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.4412038441297193</v>
+        <v>0.4357614514657664</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3934277636992251</v>
+        <v>0.3836752925315057</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.550577622453481</v>
+        <v>0.5513440936881312</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.371871820279595</v>
+        <v>0.3588206587945099</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.4523748080632179</v>
+        <v>0.4451062626717579</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3701298396961486</v>
+        <v>0.3858539878543156</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.5415593168104543</v>
+        <v>0.5442593455896791</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5358255394958436</v>
+        <v>0.5206903140207625</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6044299470646808</v>
+        <v>0.6136021655909589</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5371974688900594</v>
+        <v>0.5401539411087949</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6717261271302645</v>
+        <v>0.6778274744694149</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5884792270661637</v>
+        <v>0.5845826849095692</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.705406642188556</v>
+        <v>0.6869384181999032</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.6721327458520034</v>
+        <v>0.6567295874286574</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.71343846056796</v>
+        <v>0.7219124139961248</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.5118760377663076</v>
+        <v>0.5131226405290528</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.6096227322879707</v>
+        <v>0.6128799267551527</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.5419307618127182</v>
+        <v>0.5490823577839452</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.672860429613129</v>
+        <v>0.6811357196777563</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.4505234483704891</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.6493405243422615</v>
+        <v>0.6493405243422614</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.329289327393989</v>
+        <v>0.3170513299743871</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4003263848027769</v>
+        <v>0.4103202665836887</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2463685988066697</v>
+        <v>0.2420182106984274</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4357575461757562</v>
+        <v>0.4588788084683341</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5176762773842095</v>
+        <v>0.5003602208576986</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4006229576629439</v>
+        <v>0.4051764647390819</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.5237580529615573</v>
+        <v>0.5294619466409247</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.5868827654880132</v>
+        <v>0.5835911279581452</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4209549439479073</v>
+        <v>0.4138492285087733</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.4330414058219787</v>
+        <v>0.4382577112594906</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3752181356540991</v>
+        <v>0.3737270792975959</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.5553546963346574</v>
+        <v>0.5654921633801941</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5278353561770552</v>
+        <v>0.5218312723495397</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6333026335828417</v>
+        <v>0.6500289162911422</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.436048382194534</v>
+        <v>0.4364154308456816</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7209959334283347</v>
+        <v>0.7310410602527196</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7933109294507358</v>
+        <v>0.7777206846001177</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6819839817780941</v>
+        <v>0.6879190716675694</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7617340519742949</v>
+        <v>0.7571371118857536</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.7854506538758634</v>
+        <v>0.7887314564461629</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.5836796429955278</v>
+        <v>0.5767766614524267</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.6180178856409415</v>
+        <v>0.6185585118738727</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.5265682563872844</v>
+        <v>0.5299477796431619</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.7252816551735155</v>
+        <v>0.7249868045429706</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.5753931174743223</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.7964557561230021</v>
+        <v>0.7964557561230022</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.5095968504336434</v>
@@ -1105,7 +1105,7 @@
         <v>0.6232074368436799</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.7621374034505312</v>
+        <v>0.762137403450531</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4928759076273777</v>
+        <v>0.489800568782479</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3683027691735345</v>
+        <v>0.3670043526585708</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4727644671406346</v>
+        <v>0.4688056001890725</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7092452162547715</v>
+        <v>0.7084072917938198</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4015176512302885</v>
+        <v>0.4006590336000478</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.4734932611979077</v>
+        <v>0.4924299035208178</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.5602778887315006</v>
+        <v>0.5564118864413755</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.659145246964004</v>
+        <v>0.6493460561334122</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4788845886358014</v>
+        <v>0.4858572520161766</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.4535373950952891</v>
+        <v>0.4662420318587359</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.5418104445203755</v>
+        <v>0.5421759919671552</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.7038967243683617</v>
+        <v>0.7036646894506353</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.652364095288629</v>
+        <v>0.6572777555559918</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5908129836898858</v>
+        <v>0.5958938235065675</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6765104028082172</v>
+        <v>0.6801097706252501</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.8666345467441496</v>
+        <v>0.8655263275585701</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6110140223587133</v>
+        <v>0.6228107294096304</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7443901635287522</v>
+        <v>0.7417136978126457</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.7985316292107472</v>
+        <v>0.7885755830254061</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.7928253223390274</v>
+        <v>0.7897700014885627</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.6101476089771269</v>
+        <v>0.6158461003775261</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.6307294670202342</v>
+        <v>0.6251476483369129</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.7010649722930997</v>
+        <v>0.7071487140692679</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.8124805579099378</v>
+        <v>0.8129275872800485</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.4981217327925999</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.6454550848027323</v>
+        <v>0.6454550848027325</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3845677611404195</v>
+        <v>0.3897433772710261</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.409108526693915</v>
+        <v>0.4103240435007243</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3750212780400902</v>
+        <v>0.3750145735124971</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.5620498706155886</v>
+        <v>0.5586806618353195</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.4457231826801007</v>
+        <v>0.4429179215040394</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.5051703401034251</v>
+        <v>0.5045990448482811</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.5387029532001733</v>
+        <v>0.537519115903437</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.6280118909922439</v>
+        <v>0.6284303031944684</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.4186673132849512</v>
+        <v>0.419772627578116</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.4686201220595892</v>
+        <v>0.464053404014462</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.4549835171895991</v>
+        <v>0.4539842836894373</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.6123956167146042</v>
+        <v>0.611361703394017</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4781247226262521</v>
+        <v>0.4856202332883515</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.522843344339563</v>
+        <v>0.5187344260557682</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4887248422100474</v>
+        <v>0.4862874325706368</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6732208399647258</v>
+        <v>0.6723320988233139</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5786791822972083</v>
+        <v>0.5762096929885986</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6490909398210539</v>
+        <v>0.646188140988184</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.670087999540992</v>
+        <v>0.6717307811157897</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.7125669350598767</v>
+        <v>0.7154623729347372</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.4956288314082727</v>
+        <v>0.4958969238729041</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.5541214813960355</v>
+        <v>0.5582665919341073</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.5410762910672456</v>
+        <v>0.5414326676749553</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.6813324869434821</v>
+        <v>0.6789274817602657</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>9063</v>
+        <v>9391</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>20519</v>
+        <v>20121</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>14089</v>
+        <v>14812</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>24692</v>
+        <v>25210</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>8610</v>
+        <v>7771</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>13201</v>
+        <v>12756</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>8172</v>
+        <v>8439</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>29985</v>
+        <v>30430</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>20474</v>
+        <v>19754</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>36207</v>
+        <v>36645</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>26367</v>
+        <v>26952</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>58504</v>
+        <v>58480</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>23284</v>
+        <v>23702</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>37625</v>
+        <v>36849</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>29328</v>
+        <v>29810</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>44851</v>
+        <v>44460</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>19599</v>
+        <v>18610</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>25742</v>
+        <v>24874</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>19013</v>
+        <v>19668</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>42415</v>
+        <v>42945</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>39803</v>
+        <v>39366</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>56940</v>
+        <v>57145</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>44671</v>
+        <v>44693</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>82143</v>
+        <v>82264</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>52017</v>
+        <v>51637</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>36218</v>
+        <v>36069</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>31768</v>
+        <v>32035</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>63489</v>
+        <v>63795</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>15956</v>
+        <v>16810</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>28016</v>
+        <v>27670</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>21856</v>
+        <v>21314</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>58376</v>
+        <v>58457</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>73920</v>
+        <v>71325</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>70147</v>
+        <v>69020</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>56458</v>
+        <v>58856</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>129054</v>
+        <v>129697</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>78220</v>
+        <v>76011</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>55345</v>
+        <v>56184</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>52100</v>
+        <v>52386</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>88852</v>
+        <v>89659</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>31070</v>
+        <v>30864</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>44792</v>
+        <v>43619</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>37338</v>
+        <v>36483</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>75643</v>
+        <v>76541</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>101749</v>
+        <v>101997</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>94530</v>
+        <v>95035</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>82663</v>
+        <v>83754</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>160343</v>
+        <v>162315</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>36203</v>
+        <v>34858</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>31849</v>
+        <v>32644</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>27085</v>
+        <v>26606</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>29322</v>
+        <v>30878</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>24089</v>
+        <v>23283</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>21225</v>
+        <v>21466</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>33912</v>
+        <v>34281</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>41500</v>
+        <v>41267</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>65870</v>
+        <v>64758</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>57394</v>
+        <v>58085</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>65544</v>
+        <v>65283</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>76640</v>
+        <v>78039</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>58032</v>
+        <v>57372</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>50384</v>
+        <v>51714</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>47937</v>
+        <v>47977</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>48516</v>
+        <v>49192</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>36915</v>
+        <v>36190</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>36131</v>
+        <v>36445</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>49320</v>
+        <v>49022</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>55542</v>
+        <v>55774</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>91332</v>
+        <v>90252</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>81910</v>
+        <v>81981</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>91982</v>
+        <v>92572</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>100090</v>
+        <v>100050</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>67143</v>
+        <v>66725</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>28507</v>
+        <v>28407</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>41356</v>
+        <v>41009</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>75701</v>
+        <v>75611</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>35555</v>
+        <v>35479</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>30349</v>
+        <v>31563</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>37025</v>
+        <v>36769</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>69721</v>
+        <v>68685</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>107643</v>
+        <v>109211</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>64175</v>
+        <v>65973</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>83200</v>
+        <v>83256</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>149584</v>
+        <v>149535</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>88870</v>
+        <v>89540</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>45730</v>
+        <v>46123</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>59178</v>
+        <v>59493</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>92499</v>
+        <v>92381</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>54106</v>
+        <v>55151</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>47712</v>
+        <v>47541</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>52769</v>
+        <v>52111</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>83861</v>
+        <v>83538</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>137148</v>
+        <v>138429</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>89248</v>
+        <v>88458</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>107655</v>
+        <v>108589</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>172659</v>
+        <v>172754</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>181318</v>
+        <v>183758</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>133003</v>
+        <v>133398</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>130553</v>
+        <v>130551</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>214333</v>
+        <v>213048</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>98113</v>
+        <v>97496</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>109030</v>
+        <v>108907</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>116520</v>
+        <v>116264</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>214990</v>
+        <v>215134</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>289552</v>
+        <v>290317</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>253492</v>
+        <v>251022</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>256801</v>
+        <v>256237</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>443176</v>
+        <v>442428</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>225428</v>
+        <v>228962</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>169979</v>
+        <v>168643</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>170136</v>
+        <v>169287</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>256727</v>
+        <v>256388</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>127379</v>
+        <v>126836</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>140092</v>
+        <v>139465</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>144939</v>
+        <v>145294</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>243937</v>
+        <v>244928</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>342779</v>
+        <v>342965</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>299743</v>
+        <v>301985</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>305394</v>
+        <v>305595</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>493064</v>
+        <v>491324</v>
       </c>
     </row>
     <row r="24">
